--- a/data_calculation/source/daily_spend.xlsx
+++ b/data_calculation/source/daily_spend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15150" windowHeight="10200"/>
+    <workbookView windowWidth="16755" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>communication</t>
+  </si>
+  <si>
+    <t>soc_security</t>
   </si>
   <si>
     <t>other</t>
@@ -55,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,16 +86,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,23 +171,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,54 +194,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -191,23 +209,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,187 +225,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,22 +419,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,17 +449,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +480,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,145 +524,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,10 +989,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -997,7 +1000,7 @@
     <col min="1" max="1" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,6 +1030,9 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1056,7 +1062,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data_calculation/source/daily_spend.xlsx
+++ b/data_calculation/source/daily_spend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16755" windowHeight="6675"/>
+    <workbookView windowWidth="18495" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -17,37 +17,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>date</t>
+    <t>日期</t>
   </si>
   <si>
-    <t>food</t>
+    <t>餐饮</t>
   </si>
   <si>
-    <t>transportation</t>
+    <t>交通</t>
   </si>
   <si>
-    <t>necessities</t>
+    <t>生活用品</t>
   </si>
   <si>
-    <t>rent</t>
+    <t>房租水电</t>
   </si>
   <si>
-    <t>clothes</t>
+    <t>衣服</t>
   </si>
   <si>
-    <t>snack</t>
+    <t>零食</t>
   </si>
   <si>
-    <t>entertainment</t>
+    <t>娱乐</t>
   </si>
   <si>
-    <t>communication</t>
+    <t>通讯</t>
   </si>
   <si>
-    <t>soc_security</t>
+    <t>社保</t>
   </si>
   <si>
-    <t>other</t>
+    <t>其他</t>
   </si>
   <si>
     <t>SELECT t.* FROM information_live.daily_spend t</t>
@@ -58,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +79,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -87,61 +95,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,30 +133,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +156,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,14 +178,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,19 +225,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,13 +369,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,37 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,108 +411,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -419,17 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,17 +451,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,15 +479,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,6 +497,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -524,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,139 +557,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -992,55 +1019,58 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.375"/>
+    <col min="1" max="11" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" customHeight="1" spans="1:3">
       <c r="A2">
-        <v>20220704</v>
+        <v>20220712</v>
       </c>
       <c r="B2">
-        <v>14.76</v>
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
